--- a/data/trans_orig/Q20A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q20A-Edad-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>0.0629704796489821</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.04184526412605332</v>
+        <v>0.04184526412605331</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009861249661998393</v>
+        <v>0.009974269686935218</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01925073393746027</v>
+        <v>0.02055422349885835</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02052722390285841</v>
+        <v>0.01913628429057659</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04229193775812529</v>
+        <v>0.04493774366995455</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05795072300881864</v>
+        <v>0.05738489581981693</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06240487411044679</v>
+        <v>0.06223557436481089</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04855410729864652</v>
+        <v>0.0457311913414382</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03085721473865092</v>
+        <v>0.0308126851427114</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0432438084742186</v>
+        <v>0.04491802336124549</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04554533829451372</v>
+        <v>0.04540192094214431</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02073911979671988</v>
+        <v>0.02237923849743461</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04099470744648982</v>
+        <v>0.03948632982354253</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05792229037973268</v>
+        <v>0.06238898435699645</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07312229545689453</v>
+        <v>0.07017734800559042</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01541368750698093</v>
+        <v>0.01647975832150497</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09610067129796213</v>
+        <v>0.09538782295438919</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1103141770456518</v>
+        <v>0.1139941483855828</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1212914046645625</v>
+        <v>0.1273428756553353</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1570791257580745</v>
+        <v>0.1584292804152622</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05709779772231255</v>
+        <v>0.05863010861353304</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07682278250233372</v>
+        <v>0.07892406775015003</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08522212221298013</v>
+        <v>0.08585866106476672</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07345266525993452</v>
+        <v>0.08054952867576431</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.1202973227272214</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.08734393048611104</v>
+        <v>0.08734393048611105</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.07778052213416577</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02449756143563143</v>
+        <v>0.0246191597060208</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03347469292467078</v>
+        <v>0.03232979741874558</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01372996880218759</v>
+        <v>0.01290113317415817</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02800722758999685</v>
+        <v>0.02745103734313297</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09713130148201186</v>
+        <v>0.0965740981280116</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1300563323972283</v>
+        <v>0.1316415339311476</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08981638156843341</v>
+        <v>0.09164111173512951</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06228319631405982</v>
+        <v>0.06282990826940626</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06342219479775033</v>
+        <v>0.06243198515048044</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08638238260562119</v>
+        <v>0.0862257276999618</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05647158456479153</v>
+        <v>0.05623150591152197</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05357449306730462</v>
+        <v>0.05613475938753645</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06966212743235929</v>
+        <v>0.07186126355588908</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0700378144387111</v>
+        <v>0.06921587020339456</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05057551565759132</v>
+        <v>0.04783775688004211</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3991999862190942</v>
+        <v>0.3437554279431414</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1539028234018266</v>
+        <v>0.1555248905398841</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2093606798892364</v>
+        <v>0.2109485479408886</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1561663032319309</v>
+        <v>0.1575776774118754</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1229427645992038</v>
+        <v>0.1178015317956336</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09669385654199605</v>
+        <v>0.09897528862865959</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1281573920873607</v>
+        <v>0.1270237839714042</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0937448101883824</v>
+        <v>0.09042461276561736</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2253063222705631</v>
+        <v>0.2682632236559288</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.06378913722170268</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.0597441657235567</v>
+        <v>0.05974416572355669</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01793737401769011</v>
+        <v>0.01789253484083128</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05394387346788771</v>
+        <v>0.05319423351834732</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02366539102913512</v>
+        <v>0.0245437894306092</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02657729646901535</v>
+        <v>0.02561007146979581</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04208989114788415</v>
+        <v>0.04049334319383964</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0732731374115517</v>
+        <v>0.07548594190683529</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06750745095250209</v>
+        <v>0.06491595829640862</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05690013207196204</v>
+        <v>0.05749750208489122</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0334475915695835</v>
+        <v>0.03355523137325287</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06979065922627115</v>
+        <v>0.07117908879641377</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04957904794298067</v>
+        <v>0.04912184247068891</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04705190959236931</v>
+        <v>0.04648335875314365</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05146419531911257</v>
+        <v>0.05065524507002095</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1126434112912646</v>
+        <v>0.1137589804895745</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05853064522253262</v>
+        <v>0.06191834735922945</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07140823354926293</v>
+        <v>0.06946549775009879</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08794727689077558</v>
+        <v>0.08388776101887185</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1382408010116959</v>
+        <v>0.143159797038785</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1274279057450194</v>
+        <v>0.1201667011430189</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09979013500505526</v>
+        <v>0.1018024643744935</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06213013777391066</v>
+        <v>0.06054593027322569</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1168127027328792</v>
+        <v>0.1157443371737847</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08122478942021351</v>
+        <v>0.08389974565774659</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07771765225063816</v>
+        <v>0.0761597334240687</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.06634365220534295</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.06170178196449322</v>
+        <v>0.06170178196449323</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.06179561261409065</v>
@@ -1101,7 +1101,7 @@
         <v>0.06494864628387764</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08281670469051668</v>
+        <v>0.08281670469051669</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03720170448568253</v>
+        <v>0.03688730835416506</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0482602421370392</v>
+        <v>0.04897892110855762</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03456323107863007</v>
+        <v>0.03277663537731733</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05739015345663113</v>
+        <v>0.06114875764034763</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03797676234741566</v>
+        <v>0.03854953487613894</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06282810404127342</v>
+        <v>0.06405065246179077</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04356402589629777</v>
+        <v>0.04292591685934431</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04332900478136203</v>
+        <v>0.0443555234475919</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04382983476060628</v>
+        <v>0.04430467127576289</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06364778483863831</v>
+        <v>0.06395765734187875</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04438789817236031</v>
+        <v>0.0444628928150842</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05853175197450309</v>
+        <v>0.05907869441933396</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1340989677358896</v>
+        <v>0.1222242370438643</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.125942345379109</v>
+        <v>0.1245123650885268</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.17128375431552</v>
+        <v>0.154644607929081</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2418905953023903</v>
+        <v>0.2535947628293789</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09290018223452663</v>
+        <v>0.09201224941966436</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1221481565921516</v>
+        <v>0.1181164054344854</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09974349162614116</v>
+        <v>0.09873309414514958</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09270531544716351</v>
+        <v>0.09106955063067687</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09425165588193436</v>
+        <v>0.09526252555001112</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.107580459397447</v>
+        <v>0.1096223876958305</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1169239489788989</v>
+        <v>0.1114139504281132</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1438000013091834</v>
+        <v>0.1641060481867269</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05151664059883708</v>
+        <v>0.05111334567344056</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06682850472921947</v>
+        <v>0.06459520870187287</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06304190526521915</v>
+        <v>0.06362901191609259</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0790495434702298</v>
+        <v>0.07781387149962904</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04978921019555629</v>
+        <v>0.05127259895610958</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06678859281014238</v>
+        <v>0.067523539208675</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04559387299942628</v>
+        <v>0.045750848934208</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04889343202701783</v>
+        <v>0.04856021727844601</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05877816777623209</v>
+        <v>0.05966215255771545</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07355961231122099</v>
+        <v>0.07446426521104416</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06107912596525529</v>
+        <v>0.05964436799551777</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06923646388736003</v>
+        <v>0.06813100317482847</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2170640269936998</v>
+        <v>0.2106585880717683</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1452681061289967</v>
+        <v>0.1472300890452529</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.132957029234435</v>
+        <v>0.1326494485686018</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1433150196796644</v>
+        <v>0.1458976260365054</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1192617535515029</v>
+        <v>0.1204984509820684</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2113137437879578</v>
+        <v>0.2083476925073612</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.104723820592646</v>
+        <v>0.1060825788864217</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08980527163604908</v>
+        <v>0.09382708382024704</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1396549085726647</v>
+        <v>0.1378697331253353</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1542731298981204</v>
+        <v>0.1580126482947089</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1090232100559235</v>
+        <v>0.106504161974002</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1073799879739224</v>
+        <v>0.106831050506154</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.09083789839539588</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.07667265041743648</v>
+        <v>0.07667265041743647</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1514363752110474</v>
@@ -1373,7 +1373,7 @@
         <v>0.1133407514545882</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.0910660390594322</v>
+        <v>0.09106603905943224</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08289490011087641</v>
+        <v>0.07807720079973637</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0736716286132101</v>
+        <v>0.07370931472134858</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09518025078441295</v>
+        <v>0.0940649263348638</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08144763166130006</v>
+        <v>0.08030836504559993</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1049947978917131</v>
+        <v>0.1046777157766699</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07852768312112537</v>
+        <v>0.0755135727130349</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.06021809064049025</v>
+        <v>0.05898437359860261</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0542690238394683</v>
+        <v>0.05498451769410704</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1100837616296076</v>
+        <v>0.1089528028711784</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.08721931711509548</v>
+        <v>0.08584893307833087</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08744985181152636</v>
+        <v>0.08493477380626413</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.07351439299788934</v>
+        <v>0.07248850033871547</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1817015938265685</v>
+        <v>0.1834465157949911</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.174324163184269</v>
+        <v>0.1711263388425791</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1964921121265476</v>
+        <v>0.1951899659631847</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1394276758811977</v>
+        <v>0.1434599686570439</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3065828714518491</v>
+        <v>0.3368080084655318</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1484811425252803</v>
+        <v>0.1502894435042404</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.133939449986701</v>
+        <v>0.1328005028134019</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1139349950157565</v>
+        <v>0.1118788869130201</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2356398049751265</v>
+        <v>0.2299811099635215</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.147528429233386</v>
+        <v>0.1462780133390386</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1483538737471127</v>
+        <v>0.1492066251546065</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1136322096457468</v>
+        <v>0.1130942019207821</v>
       </c>
     </row>
     <row r="22">
@@ -1509,7 +1509,7 @@
         <v>0.140961334377346</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.1281925389651526</v>
+        <v>0.1281925389651525</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1055394593866108</v>
+        <v>0.1068254433069367</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1597799579540443</v>
+        <v>0.1577815956535068</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08217148604890544</v>
+        <v>0.08244586363537042</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09730779074104978</v>
+        <v>0.09835270430795644</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1191405300485889</v>
+        <v>0.1180148964330838</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1255247646021076</v>
+        <v>0.1242890749025214</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09753167478868355</v>
+        <v>0.09718246188378259</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.09767319975181028</v>
+        <v>0.09676548367361384</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1346103732768605</v>
+        <v>0.1334256736790487</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1634014022511847</v>
+        <v>0.1654628220279927</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.10435362888101</v>
+        <v>0.1060387252448038</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1066624024845016</v>
+        <v>0.1067231878576261</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3057287983102152</v>
+        <v>0.2974668982166824</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9815793331099674</v>
+        <v>1.045044854789973</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.204000346048809</v>
+        <v>0.1996271506142353</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1850153787423948</v>
+        <v>0.1848249560829007</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3754498976997108</v>
+        <v>0.366556015698514</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.245850300653049</v>
+        <v>0.2555228917400779</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2366393856945838</v>
+        <v>0.2380402791648335</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1628599015333317</v>
+        <v>0.1650244729973355</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2934423829097095</v>
+        <v>0.3012022604275136</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4887523116715868</v>
+        <v>0.4849829978243383</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2023658289791703</v>
+        <v>0.2054439118852049</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1555880050698844</v>
+        <v>0.156981471839275</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +1633,7 @@
         <v>0.09426175557270114</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.0802027686981151</v>
+        <v>0.08020276869811506</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.08139527743033152</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05004257641567882</v>
+        <v>0.04995329917484501</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.07390535997694017</v>
+        <v>0.07380649813567272</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05439663523615849</v>
+        <v>0.05426904038419948</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.06668770331580398</v>
+        <v>0.06656668487166199</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0854882449517194</v>
+        <v>0.0847645760028522</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1041091586807252</v>
+        <v>0.1043750483939484</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.08182818516285628</v>
+        <v>0.08322553829434071</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.07073271454786051</v>
+        <v>0.07027311832726192</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.07162933994345258</v>
+        <v>0.07159027289372102</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.09416166157226261</v>
+        <v>0.09371458663525221</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.07140168204576712</v>
+        <v>0.0711163610758596</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.0730646222025937</v>
+        <v>0.07265862479696615</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07949197704829494</v>
+        <v>0.07862779879145429</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1325946907467298</v>
+        <v>0.1291914086678558</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.08123457080411106</v>
+        <v>0.08407809928559029</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1261569880031893</v>
+        <v>0.1247962138411775</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1221863009491729</v>
+        <v>0.1209374141333079</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1365788836192268</v>
+        <v>0.1367135712971451</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1088355349392404</v>
+        <v>0.1110334512127907</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.09143593208752568</v>
+        <v>0.09161534528308479</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.09450486455822488</v>
+        <v>0.09461017077948199</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1271276955030947</v>
+        <v>0.1258066720968513</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.09160206684278475</v>
+        <v>0.09073533210958651</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1042822245324694</v>
+        <v>0.1045643911013589</v>
       </c>
     </row>
     <row r="28">
